--- a/dataset/gallery-data.xlsx
+++ b/dataset/gallery-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -28,52 +28,208 @@
     <t>imageName</t>
   </si>
   <si>
-    <t>img1.jpeg</t>
-  </si>
-  <si>
-    <t>img1</t>
-  </si>
-  <si>
-    <t>img2</t>
-  </si>
-  <si>
-    <t>img3</t>
-  </si>
-  <si>
-    <t>img4</t>
-  </si>
-  <si>
-    <t>img5</t>
-  </si>
-  <si>
-    <t>img6</t>
-  </si>
-  <si>
-    <t>img7</t>
-  </si>
-  <si>
-    <t>img8</t>
-  </si>
-  <si>
-    <t>img2.jpeg</t>
-  </si>
-  <si>
-    <t>img3.jpeg</t>
-  </si>
-  <si>
-    <t>img4.jpeg</t>
-  </si>
-  <si>
-    <t>img5.jpeg</t>
-  </si>
-  <si>
-    <t>img6.jpeg</t>
-  </si>
-  <si>
-    <t>img7.jpeg</t>
-  </si>
-  <si>
-    <t>img8.jpeg</t>
+    <t>g1.jpeg</t>
+  </si>
+  <si>
+    <t>g2.jpeg</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>g8</t>
+  </si>
+  <si>
+    <t>g9</t>
+  </si>
+  <si>
+    <t>g10</t>
+  </si>
+  <si>
+    <t>g11</t>
+  </si>
+  <si>
+    <t>g12</t>
+  </si>
+  <si>
+    <t>g13</t>
+  </si>
+  <si>
+    <t>g14</t>
+  </si>
+  <si>
+    <t>g15</t>
+  </si>
+  <si>
+    <t>g16</t>
+  </si>
+  <si>
+    <t>g17</t>
+  </si>
+  <si>
+    <t>g18</t>
+  </si>
+  <si>
+    <t>g19</t>
+  </si>
+  <si>
+    <t>g20</t>
+  </si>
+  <si>
+    <t>g21</t>
+  </si>
+  <si>
+    <t>g22</t>
+  </si>
+  <si>
+    <t>g23</t>
+  </si>
+  <si>
+    <t>g24</t>
+  </si>
+  <si>
+    <t>g25</t>
+  </si>
+  <si>
+    <t>g26</t>
+  </si>
+  <si>
+    <t>g27</t>
+  </si>
+  <si>
+    <t>g28</t>
+  </si>
+  <si>
+    <t>g29</t>
+  </si>
+  <si>
+    <t>g30</t>
+  </si>
+  <si>
+    <t>g31</t>
+  </si>
+  <si>
+    <t>g32</t>
+  </si>
+  <si>
+    <t>g33</t>
+  </si>
+  <si>
+    <t>g34</t>
+  </si>
+  <si>
+    <t>g3.jpeg</t>
+  </si>
+  <si>
+    <t>g4.jpeg</t>
+  </si>
+  <si>
+    <t>g5.jpeg</t>
+  </si>
+  <si>
+    <t>g6.jpeg</t>
+  </si>
+  <si>
+    <t>g7.jpeg</t>
+  </si>
+  <si>
+    <t>g8.jpeg</t>
+  </si>
+  <si>
+    <t>g9.jpeg</t>
+  </si>
+  <si>
+    <t>g10.jpeg</t>
+  </si>
+  <si>
+    <t>g11.jpeg</t>
+  </si>
+  <si>
+    <t>g12.jpeg</t>
+  </si>
+  <si>
+    <t>g13.jpeg</t>
+  </si>
+  <si>
+    <t>g14.jpeg</t>
+  </si>
+  <si>
+    <t>g15.jpeg</t>
+  </si>
+  <si>
+    <t>g16.jpeg</t>
+  </si>
+  <si>
+    <t>g17.jpeg</t>
+  </si>
+  <si>
+    <t>g18.jpeg</t>
+  </si>
+  <si>
+    <t>g19.jpeg</t>
+  </si>
+  <si>
+    <t>g20.jpeg</t>
+  </si>
+  <si>
+    <t>g21.jpeg</t>
+  </si>
+  <si>
+    <t>g22.jpeg</t>
+  </si>
+  <si>
+    <t>g23.jpeg</t>
+  </si>
+  <si>
+    <t>g24.jpeg</t>
+  </si>
+  <si>
+    <t>g25.jpeg</t>
+  </si>
+  <si>
+    <t>g26.jpeg</t>
+  </si>
+  <si>
+    <t>g27.jpeg</t>
+  </si>
+  <si>
+    <t>g28.jpeg</t>
+  </si>
+  <si>
+    <t>g29.jpeg</t>
+  </si>
+  <si>
+    <t>g30.jpeg</t>
+  </si>
+  <si>
+    <t>g31.jpeg</t>
+  </si>
+  <si>
+    <t>g32.jpeg</t>
+  </si>
+  <si>
+    <t>g33.jpeg</t>
+  </si>
+  <si>
+    <t>g34.jpeg</t>
   </si>
 </sst>
 </file>
@@ -430,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>45877</v>
@@ -475,13 +631,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>45908</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,13 +645,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>45912</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,13 +659,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>45910</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,13 +673,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>45915</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +687,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>45916</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +701,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>45917</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,13 +715,377 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>45918</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45919</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45920</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45922</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45923</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45924</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45925</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45926</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45927</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45928</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45929</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45930</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45931</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45932</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45933</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45934</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45935</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45936</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45938</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45939</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45940</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45941</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45942</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45943</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45944</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
